--- a/AI Cross Demo_080221/Default.xlsx
+++ b/AI Cross Demo_080221/Default.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Browser</t>
   </si>
@@ -29,9 +29,6 @@
     <t>Context</t>
   </si>
   <si>
-    <t>FIREFOX</t>
-  </si>
-  <si>
     <t>Device Name</t>
   </si>
   <si>
@@ -42,9 +39,6 @@
   </si>
   <si>
     <t>ostype</t>
-  </si>
-  <si>
-    <t>advantageonlineshopping.com/</t>
   </si>
   <si>
     <t>URL</t>
@@ -538,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -564,22 +558,22 @@
         <v>0</v>
       </c>
       <c t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c t="s">
+        <v>6</v>
+      </c>
+      <c t="s">
+        <v>2</v>
+      </c>
+      <c t="s">
+        <v>5</v>
       </c>
       <c t="s">
         <v>7</v>
       </c>
       <c t="s">
-        <v>2</v>
-      </c>
-      <c t="s">
-        <v>6</v>
-      </c>
-      <c t="s">
-        <v>8</v>
-      </c>
-      <c t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row>
@@ -588,22 +582,6 @@
       </c>
       <c s="1" t="s">
         <v>1</v>
-      </c>
-      <c s="1" t="s">
-        <v>11</v>
-      </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="3"/>
-    </row>
-    <row>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="1" t="s">
-        <v>4</v>
       </c>
       <c s="1" t="s">
         <v>9</v>

--- a/AI Cross Demo_080221/Default.xlsx
+++ b/AI Cross Demo_080221/Default.xlsx
@@ -535,7 +535,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
